--- a/src/Tests/RegressionTests/Expected/NumberFormatAndAlignment.xlsx
+++ b/src/Tests/RegressionTests/Expected/NumberFormatAndAlignment.xlsx
@@ -41,7 +41,7 @@
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="$0.00"/>
-    <x:numFmt numFmtId="166" formatCode="#,###"/>
+    <x:numFmt numFmtId="166" formatCode="#,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -457,10 +457,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="3" t="n">
-        <x:v>164.670540494586</x:v>
+        <x:v>141.5</x:v>
       </x:c>
       <x:c r="C2" s="4" t="n">
-        <x:v>53</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -468,10 +468,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="3" t="n">
-        <x:v>951.435307890779</x:v>
+        <x:v>0.314</x:v>
       </x:c>
       <x:c r="C3" s="4" t="n">
-        <x:v>81</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -479,10 +479,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>624.31707397608</x:v>
+        <x:v>653.5</x:v>
       </x:c>
       <x:c r="C4" s="4" t="n">
-        <x:v>57</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Tests/RegressionTests/Expected/NumberFormatAndAlignment.xlsx
+++ b/src/Tests/RegressionTests/Expected/NumberFormatAndAlignment.xlsx
@@ -457,10 +457,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="3" t="n">
-        <x:v>141.5</x:v>
+        <x:v>0.022477936010099</x:v>
       </x:c>
       <x:c r="C2" s="4" t="n">
-        <x:v>92</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -468,10 +468,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="3" t="n">
-        <x:v>0.314</x:v>
+        <x:v>601.352605317418</x:v>
       </x:c>
       <x:c r="C3" s="4" t="n">
-        <x:v>15</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -479,10 +479,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>653.5</x:v>
+        <x:v>967.955701969543</x:v>
       </x:c>
       <x:c r="C4" s="4" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
